--- a/Аспекты тестов/Набор тестов для функции stripLeft.xlsx
+++ b/Аспекты тестов/Набор тестов для функции stripLeft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>Заполненность строки</t>
   </si>
   <si>
-    <t>Строка пустая, строка не пустая</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
@@ -175,6 +172,21 @@
   </si>
   <si>
     <t>Слева от строки один символ из перечисленных</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Строка пустая, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>строка не пустая</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -791,8 +803,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2106,7 +2118,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -5985,7 +5997,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7297,10 +7309,10 @@
     </row>
     <row r="6" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7821,7 +7833,7 @@
     </row>
     <row r="8" spans="1:256" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>18</v>
